--- a/project/public/file/input-data.xlsx
+++ b/project/public/file/input-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3088\OneDrive\바탕 화면\　\코딩\My\프로젝트\V-DAS\project\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B0FDCDC-A57A-4A26-8888-3E0B1C617E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2273E539-C9AE-40CE-BA3E-1F6C5CEDA0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="20895" windowHeight="11835" xr2:uid="{2C90205A-45B4-C04B-97C1-2FDE7A5BDBE6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13935" windowHeight="16200" xr2:uid="{2C90205A-45B4-C04B-97C1-2FDE7A5BDBE6}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>남자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하노이한인교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>순복음은성교회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,10 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오천제일교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>월야교회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,9 +241,6 @@
     <t>대구서현교회</t>
   </si>
   <si>
-    <t>하노이한인교회</t>
-  </si>
-  <si>
     <t>순복음은성교회</t>
   </si>
   <si>
@@ -283,9 +272,6 @@
   </si>
   <si>
     <t>우리교회</t>
-  </si>
-  <si>
-    <t>오천제일교회</t>
   </si>
   <si>
     <t>월야교회</t>
@@ -341,7 +327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,12 +337,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCCCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,7 +383,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -420,9 +400,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -765,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7820ECB5-0782-0B42-B43D-4277CF5933AB}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="52" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -990,7 +967,7 @@
     </row>
     <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -1004,7 +981,7 @@
     </row>
     <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" s="5">
         <v>8</v>
@@ -1018,157 +995,161 @@
     </row>
     <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="5">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B24" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B25" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B26" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B27" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D27" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B28" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D28" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B29" s="5">
         <v>1</v>
@@ -1177,22 +1158,26 @@
         <v>45</v>
       </c>
       <c r="D29" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="5">
+        <v>7</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B31" s="5">
         <v>1</v>
@@ -1201,104 +1186,76 @@
         <v>47</v>
       </c>
       <c r="D31" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B32" s="5">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D32" s="5">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B33" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D33" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B34" s="5">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D34" s="5">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B35" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D35" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B36" s="5">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="D36" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="5">
-        <v>6</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="5">
         <v>7</v>
       </c>
     </row>
